--- a/data/processed/basaltic_glasses/calczaf_files/Edi06/detlim/calczaf_outputs.xlsx
+++ b/data/processed/basaltic_glasses/calczaf_files/Edi06/detlim/calczaf_outputs.xlsx
@@ -442,31 +442,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="C2">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="D2">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="E2">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="F2">
         <v>0.021</v>
       </c>
       <c r="G2">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="H2">
         <v>0.001</v>
       </c>
       <c r="I2">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -506,31 +506,31 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="C5">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="D5">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="E5">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="F5">
         <v>0.021</v>
       </c>
       <c r="G5">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="H5">
         <v>0.001</v>
       </c>
       <c r="I5">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="J5">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -570,31 +570,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="C8">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="D8">
-        <v>0.029</v>
+        <v>0.036</v>
       </c>
       <c r="E8">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="F8">
         <v>0.033</v>
       </c>
       <c r="G8">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="H8">
         <v>0.002</v>
       </c>
       <c r="I8">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="J8">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
     </row>
   </sheetData>
@@ -650,28 +650,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="C2">
+        <v>0.026</v>
+      </c>
+      <c r="D2">
         <v>0.028</v>
       </c>
-      <c r="D2">
-        <v>0.022</v>
-      </c>
       <c r="E2">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="F2">
         <v>0.025</v>
       </c>
       <c r="G2">
+        <v>0.026</v>
+      </c>
+      <c r="H2">
+        <v>0.002</v>
+      </c>
+      <c r="I2">
         <v>0.024</v>
-      </c>
-      <c r="H2">
-        <v>0.003</v>
-      </c>
-      <c r="I2">
-        <v>0.021</v>
       </c>
       <c r="J2">
         <v>0.028</v>
@@ -714,28 +714,28 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="C5">
+        <v>0.026</v>
+      </c>
+      <c r="D5">
         <v>0.028</v>
       </c>
-      <c r="D5">
-        <v>0.022</v>
-      </c>
       <c r="E5">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="F5">
         <v>0.025</v>
       </c>
       <c r="G5">
+        <v>0.026</v>
+      </c>
+      <c r="H5">
+        <v>0.002</v>
+      </c>
+      <c r="I5">
         <v>0.024</v>
-      </c>
-      <c r="H5">
-        <v>0.003</v>
-      </c>
-      <c r="I5">
-        <v>0.021</v>
       </c>
       <c r="J5">
         <v>0.028</v>
@@ -778,31 +778,31 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>0.044</v>
+      </c>
+      <c r="C8">
+        <v>0.041</v>
+      </c>
+      <c r="D8">
+        <v>0.043</v>
+      </c>
+      <c r="E8">
+        <v>0.038</v>
+      </c>
+      <c r="F8">
         <v>0.04</v>
       </c>
-      <c r="C8">
-        <v>0.043</v>
-      </c>
-      <c r="D8">
-        <v>0.034</v>
-      </c>
-      <c r="E8">
-        <v>0.033</v>
-      </c>
-      <c r="F8">
-        <v>0.039</v>
-      </c>
       <c r="G8">
+        <v>0.041</v>
+      </c>
+      <c r="H8">
+        <v>0.003</v>
+      </c>
+      <c r="I8">
         <v>0.038</v>
       </c>
-      <c r="H8">
-        <v>0.004</v>
-      </c>
-      <c r="I8">
-        <v>0.033</v>
-      </c>
       <c r="J8">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
     </row>
   </sheetData>
